--- a/static/files/raspberry-cordials-filled.xlsx
+++ b/static/files/raspberry-cordials-filled.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Sites/sites/econw18/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{4A41077E-8674-3D4A-B5E4-572B58C55BAA}"/>
+    <workbookView xWindow="-320" yWindow="-23560" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{4A41077E-8674-3D4A-B5E4-572B58C55BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -152,7 +152,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9312,7 +9312,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9917,7 +9917,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <f>C2-D2</f>
+        <f t="shared" ref="G2:G12" si="0">C2-D2</f>
         <v>-20</v>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C12" si="0">A3*B3</f>
+        <f t="shared" ref="C3:C12" si="1">A3*B3</f>
         <v>50</v>
       </c>
       <c r="D3">
@@ -9996,7 +9996,7 @@
         <v>2.6000000000000014</v>
       </c>
       <c r="G3" s="2">
-        <f>C3-D3</f>
+        <f t="shared" si="0"/>
         <v>27.4</v>
       </c>
     </row>
@@ -10008,7 +10008,7 @@
         <v>45</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D4">
@@ -10016,7 +10016,7 @@
         <v>27.8</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E12" si="1">(C4-C3)/(A4-A3)</f>
+        <f t="shared" ref="E4:E12" si="2">(C4-C3)/(A4-A3)</f>
         <v>40</v>
       </c>
       <c r="F4">
@@ -10024,7 +10024,7 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="G4" s="2">
-        <f>C4-D4</f>
+        <f t="shared" si="0"/>
         <v>62.2</v>
       </c>
     </row>
@@ -10036,7 +10036,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="D5">
@@ -10044,7 +10044,7 @@
         <v>35.6</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="F5">
@@ -10052,7 +10052,7 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="G5" s="2">
-        <f>C5-D5</f>
+        <f t="shared" si="0"/>
         <v>84.4</v>
       </c>
     </row>
@@ -10064,7 +10064,7 @@
         <v>35</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="D6">
@@ -10072,7 +10072,7 @@
         <v>46</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="F6">
@@ -10080,7 +10080,7 @@
         <v>10.399999999999999</v>
       </c>
       <c r="G6" s="2">
-        <f>C6-D6</f>
+        <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
         <v>30</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D7">
@@ -10100,7 +10100,7 @@
         <v>59</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F7">
@@ -10108,7 +10108,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="2">
-        <f>C7-D7</f>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D8">
@@ -10128,7 +10128,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8">
@@ -10136,7 +10136,7 @@
         <v>15.599999999999994</v>
       </c>
       <c r="G8" s="2">
-        <f>C8-D8</f>
+        <f t="shared" si="0"/>
         <v>75.400000000000006</v>
       </c>
     </row>
@@ -10148,7 +10148,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="D9">
@@ -10156,7 +10156,7 @@
         <v>92.8</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="F9">
@@ -10164,7 +10164,7 @@
         <v>18.200000000000003</v>
       </c>
       <c r="G9" s="2">
-        <f>C9-D9</f>
+        <f t="shared" si="0"/>
         <v>47.2</v>
       </c>
     </row>
@@ -10176,7 +10176,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="D10">
@@ -10184,7 +10184,7 @@
         <v>113.6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-20</v>
       </c>
       <c r="F10">
@@ -10192,7 +10192,7 @@
         <v>20.799999999999997</v>
       </c>
       <c r="G10" s="2">
-        <f>C10-D10</f>
+        <f t="shared" si="0"/>
         <v>6.4000000000000057</v>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D11">
@@ -10212,7 +10212,7 @@
         <v>137</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-30</v>
       </c>
       <c r="F11">
@@ -10220,7 +10220,7 @@
         <v>23.400000000000006</v>
       </c>
       <c r="G11" s="2">
-        <f>C11-D11</f>
+        <f t="shared" si="0"/>
         <v>-47</v>
       </c>
     </row>
@@ -10232,7 +10232,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="D12">
@@ -10240,7 +10240,7 @@
         <v>163</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-40</v>
       </c>
       <c r="F12">
@@ -10248,7 +10248,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="2">
-        <f>C12-D12</f>
+        <f t="shared" si="0"/>
         <v>-113</v>
       </c>
     </row>
@@ -10263,8 +10263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDBD1AE-FA30-424B-BE23-EC2ED776CF9A}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/static/files/raspberry-cordials-filled.xlsx
+++ b/static/files/raspberry-cordials-filled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-320" yWindow="-23560" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{4A41077E-8674-3D4A-B5E4-572B58C55BAA}"/>
+    <workbookView xWindow="4640" yWindow="-23380" windowWidth="28800" windowHeight="16660" activeTab="2" xr2:uid="{4A41077E-8674-3D4A-B5E4-572B58C55BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Quantity</t>
   </si>
@@ -82,22 +82,27 @@
     <t>TR</t>
   </si>
   <si>
-    <t>%∆Q</t>
+    <t>ϵ</t>
   </si>
   <si>
-    <t>%∆P</t>
+    <t>∆Q</t>
   </si>
   <si>
-    <t>ϵ</t>
+    <t>∆P</t>
+  </si>
+  <si>
+    <t>∆Q/∆P</t>
+  </si>
+  <si>
+    <t>P/Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -144,15 +149,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3360,7 +3368,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Elasticities!$F$1</c:f>
+              <c:f>Elasticities!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3383,36 +3391,39 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Elasticities!$F$3:$F$12</c:f>
+              <c:f>Elasticities!$H$3:$H$12</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>2.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.75</c:v>
+                  <c:v>1.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2000000000000002</c:v>
+                  <c:v>0.83333333333333348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83333333333333326</c:v>
+                  <c:v>0.57142857142857151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.375</c:v>
+                  <c:v>0.22222222222222224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3507,7 +3518,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8903,14 +8914,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>665480</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>71120</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>568960</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -8939,14 +8950,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528320</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>309880</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
@@ -8975,14 +8986,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>309880</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
@@ -10261,20 +10272,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDBD1AE-FA30-424B-BE23-EC2ED776CF9A}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.83203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="6"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="10.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="8"/>
+    <col min="8" max="8" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10285,16 +10298,22 @@
         <v>17</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -10306,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10317,8 +10336,28 @@
         <f t="shared" ref="C3:C12" si="0">A3*B3</f>
         <v>50</v>
       </c>
+      <c r="D3" s="7">
+        <f>A3-A2</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <f>B3-B2</f>
+        <v>-5</v>
+      </c>
+      <c r="F3" s="8">
+        <f>D3/E3</f>
+        <v>-0.2</v>
+      </c>
+      <c r="G3" s="2">
+        <f>B3/A3</f>
+        <v>50</v>
+      </c>
+      <c r="H3" s="10">
+        <f>-F3*G3</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10329,20 +10368,28 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D4" s="6">
-        <f t="shared" ref="D4:D12" si="1">(A4-A3)/A3</f>
+      <c r="D4" s="7">
+        <f t="shared" ref="D4:D12" si="1">A4-A3</f>
         <v>1</v>
       </c>
-      <c r="E4" s="6">
-        <f>(B4-B3)/B3</f>
-        <v>-0.1</v>
-      </c>
-      <c r="F4" s="7">
-        <f>-D4/E4</f>
-        <v>10</v>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E12" si="2">B4-B3</f>
+        <v>-5</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F12" si="3">D4/E4</f>
+        <v>-0.2</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G12" si="4">B4/A4</f>
+        <v>22.5</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H12" si="5">-F4*G4</f>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10353,20 +10400,28 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" ref="E5:E12" si="2">(B5-B4)/B4</f>
-        <v>-0.1111111111111111</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" ref="F5:F12" si="3">-D5/E5</f>
-        <v>4.5</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="4"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="5"/>
+        <v>2.666666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10377,20 +10432,28 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="2"/>
-        <v>-0.125</v>
-      </c>
-      <c r="F6" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F6" s="8">
         <f t="shared" si="3"/>
-        <v>2.6666666666666665</v>
+        <v>-0.2</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>8.75</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10401,20 +10464,28 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="2"/>
-        <v>-0.14285714285714285</v>
-      </c>
-      <c r="F7" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="3"/>
-        <v>1.75</v>
+        <v>-0.2</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="5"/>
+        <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10425,20 +10496,28 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="2"/>
-        <v>-0.16666666666666666</v>
-      </c>
-      <c r="F8" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="3"/>
-        <v>1.2000000000000002</v>
+        <v>-0.2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="4"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333348</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10449,20 +10528,28 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="3"/>
         <v>-0.2</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="3"/>
-        <v>0.83333333333333326</v>
+      <c r="G9" s="2">
+        <f t="shared" si="4"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="5"/>
+        <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10473,20 +10560,28 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" si="2"/>
-        <v>-0.25</v>
-      </c>
-      <c r="F10" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="3"/>
-        <v>0.5714285714285714</v>
+        <v>-0.2</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="4"/>
+        <v>1.875</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="5"/>
+        <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10497,20 +10592,28 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" si="2"/>
-        <v>-0.33333333333333331</v>
-      </c>
-      <c r="F11" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="3"/>
-        <v>0.375</v>
+        <v>-0.2</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="5"/>
+        <v>0.22222222222222224</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10521,17 +10624,25 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" si="2"/>
-        <v>-0.5</v>
-      </c>
-      <c r="F12" s="7">
+        <v>-5</v>
+      </c>
+      <c r="F12" s="8">
         <f t="shared" si="3"/>
-        <v>0.22222222222222221</v>
+        <v>-0.2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
